--- a/public/Excel Results/Computer Programmer I-2.xlsx
+++ b/public/Excel Results/Computer Programmer I-2.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Permanent" sheetId="1" r:id="rId4"/>
-    <sheet name="Outsider" sheetId="2" r:id="rId5"/>
+    <sheet name="Casual" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="a">'[1]LIST'!$B$1:$B$11</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>C O M P A R A T I V E    A S S E S S M E N T   F O R M</t>
   </si>
@@ -117,19 +117,19 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>FRIDA D. HUELS</t>
-  </si>
-  <si>
-    <t>Quasi quaerat earum iure pariatur dolores.</t>
-  </si>
-  <si>
-    <t>sggdfgdfg</t>
+    <t>ENOLA A. O'KON</t>
+  </si>
+  <si>
+    <t>Dolor nemo est qui quia.</t>
+  </si>
+  <si>
+    <t>wewe</t>
   </si>
   <si>
     <t>Position</t>
   </si>
   <si>
-    <t>Construction and Maintenance Capataz</t>
+    <t>Chief Hospital I</t>
   </si>
   <si>
     <t>Address</t>
@@ -141,7 +141,7 @@
     <t>Age/Civil Status</t>
   </si>
   <si>
-    <t>42854121/Single</t>
+    <t>2544415/Single</t>
   </si>
   <si>
     <r>
@@ -318,16 +318,22 @@
     <t>PGO - Benguet provides equal employment opportunities to its employees and applicants regardless of gender, sexual orientation, age, religion, ethnicity, status, indigenous group or physical handicaps.</t>
   </si>
   <si>
-    <t>ANNE H. STREICH</t>
-  </si>
-  <si>
-    <t>Rerum minima quam qui a iste velit.</t>
+    <t>MALLORY H. BERNHARD</t>
+  </si>
+  <si>
+    <t>Eum eos omnis dolor qui voluptatem et et.</t>
+  </si>
+  <si>
+    <t>fgdsfg</t>
+  </si>
+  <si>
+    <t>Computer Programmer I</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>79071/Single</t>
+    <t>23/Single</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1751,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="47">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L12" s="48">
         <v>20</v>
@@ -1759,7 +1765,7 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="64">
         <f>SUM(K12:Q12)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S12" s="50"/>
       <c r="T12" s="51"/>
@@ -2469,12 +2475,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
       <selection activeCell="R12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
@@ -2808,17 +2814,17 @@
       <c r="I12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="46">
-        <v>54</v>
+      <c r="J12" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="K12" s="47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L12" s="48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M12" s="87">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N12" s="88"/>
       <c r="O12" s="48"/>
@@ -2826,7 +2832,7 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="64">
         <f>SUM(K12:Q12)</f>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="S12" s="50"/>
       <c r="T12" s="51"/>
@@ -2841,7 +2847,9 @@
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="F13" s="69" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="69"/>
       <c r="H13" s="86"/>
       <c r="I13" s="68"/>
@@ -2868,7 +2876,7 @@
       <c r="D14" s="69"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="86"/>
@@ -2896,7 +2904,7 @@
       <c r="D15" s="69"/>
       <c r="E15" s="69"/>
       <c r="F15" s="69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" s="69"/>
       <c r="H15" s="86"/>

--- a/public/Excel Results/Computer Programmer I-2.xlsx
+++ b/public/Excel Results/Computer Programmer I-2.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Permanent" sheetId="1" r:id="rId4"/>
-    <sheet name="Casual" sheetId="2" r:id="rId5"/>
+    <sheet name="Outsider" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="a">'[1]LIST'!$B$1:$B$11</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>C O M P A R A T I V E    A S S E S S M E N T   F O R M</t>
   </si>
@@ -117,19 +117,19 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>ENOLA A. O'KON</t>
-  </si>
-  <si>
-    <t>Dolor nemo est qui quia.</t>
-  </si>
-  <si>
-    <t>wewe</t>
+    <t>FRIDA D. HUELS</t>
+  </si>
+  <si>
+    <t>Quasi quaerat earum iure pariatur dolores.</t>
+  </si>
+  <si>
+    <t>sggdfgdfg</t>
   </si>
   <si>
     <t>Position</t>
   </si>
   <si>
-    <t>Chief Hospital I</t>
+    <t>Construction and Maintenance Capataz</t>
   </si>
   <si>
     <t>Address</t>
@@ -141,7 +141,7 @@
     <t>Age/Civil Status</t>
   </si>
   <si>
-    <t>2544415/Single</t>
+    <t>42854121/Single</t>
   </si>
   <si>
     <r>
@@ -318,22 +318,16 @@
     <t>PGO - Benguet provides equal employment opportunities to its employees and applicants regardless of gender, sexual orientation, age, religion, ethnicity, status, indigenous group or physical handicaps.</t>
   </si>
   <si>
-    <t>MALLORY H. BERNHARD</t>
-  </si>
-  <si>
-    <t>Eum eos omnis dolor qui voluptatem et et.</t>
-  </si>
-  <si>
-    <t>fgdsfg</t>
-  </si>
-  <si>
-    <t>Computer Programmer I</t>
+    <t>ANNE H. STREICH</t>
+  </si>
+  <si>
+    <t>Rerum minima quam qui a iste velit.</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>23/Single</t>
+    <t>79071/Single</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L12" s="48">
         <v>20</v>
@@ -1765,7 +1759,7 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="64">
         <f>SUM(K12:Q12)</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S12" s="50"/>
       <c r="T12" s="51"/>
@@ -2475,12 +2469,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="R12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
@@ -2814,17 +2808,17 @@
       <c r="I12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="46" t="s">
-        <v>67</v>
+      <c r="J12" s="46">
+        <v>54</v>
       </c>
       <c r="K12" s="47">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L12" s="48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M12" s="87">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N12" s="88"/>
       <c r="O12" s="48"/>
@@ -2832,7 +2826,7 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="64">
         <f>SUM(K12:Q12)</f>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="S12" s="50"/>
       <c r="T12" s="51"/>
@@ -2847,9 +2841,7 @@
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
-      <c r="F13" s="69" t="s">
-        <v>68</v>
-      </c>
+      <c r="F13" s="69"/>
       <c r="G13" s="69"/>
       <c r="H13" s="86"/>
       <c r="I13" s="68"/>
@@ -2876,7 +2868,7 @@
       <c r="D14" s="69"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="86"/>
@@ -2904,7 +2896,7 @@
       <c r="D15" s="69"/>
       <c r="E15" s="69"/>
       <c r="F15" s="69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="69"/>
       <c r="H15" s="86"/>
